--- a/static/uploads/historial_trades.xlsx
+++ b/static/uploads/historial_trades.xlsx
@@ -498,7 +498,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Prueba</t>
+          <t>Prueba2</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>20549</v>
@@ -540,7 +540,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>80.0 USD</t>
+          <t>16.0 USD</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -552,7 +552,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Prueba</t>
+          <t>Prueba2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -561,16 +561,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>20385</v>
+        <v>20582</v>
       </c>
       <c r="E3" t="n">
-        <v>20295</v>
+        <v>20461</v>
       </c>
       <c r="F3" t="n">
-        <v>20394</v>
+        <v>20594</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -594,7 +594,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>45.0 USD</t>
+          <t>12.0 USD</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -606,29 +606,29 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Prueba</t>
+          <t>Prueba2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BOOM1000</t>
+          <t>BOOM500</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>20564</v>
+        <v>7282</v>
       </c>
       <c r="E4" t="n">
-        <v>20554</v>
+        <v>7279</v>
       </c>
       <c r="F4" t="n">
-        <v>20566</v>
+        <v>7317</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Perdedora</t>
+          <t>Ganadora</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -638,7 +638,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Miedo</t>
+          <t>Optimismo</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>50.0 USD</t>
+          <t>35.0 USD</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -660,29 +660,29 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Prueba</t>
+          <t>Prueba2</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BOOM1000</t>
+          <t>BOOM300</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>20582</v>
+        <v>1620</v>
       </c>
       <c r="E5" t="n">
-        <v>20461</v>
+        <v>1606</v>
       </c>
       <c r="F5" t="n">
-        <v>20594</v>
+        <v>1636</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Ganadora</t>
+          <t>Perdedora</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -702,7 +702,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>60.0 USD</t>
+          <t>14.0 USD</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -714,7 +714,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Prueba</t>
+          <t>Prueba2</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>7282</v>
+        <v>7298</v>
       </c>
       <c r="E6" t="n">
         <v>7279</v>
       </c>
       <c r="F6" t="n">
-        <v>7317</v>
+        <v>7305</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Optimismo</t>
+          <t>Confianza</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -756,7 +756,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>175.0 USD</t>
+          <t>7.0 USD</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -768,29 +768,29 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Prueba</t>
+          <t>Prueba2</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BOOM500</t>
+          <t>BOOM1000</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>7298</v>
+        <v>20634</v>
       </c>
       <c r="E7" t="n">
-        <v>7279</v>
+        <v>20603</v>
       </c>
       <c r="F7" t="n">
-        <v>7305</v>
+        <v>20636</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Ganadora</t>
+          <t>Perdedora</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -810,7 +810,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>35.0 USD</t>
+          <t>31.0 USD</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -822,7 +822,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Prueba</t>
+          <t>Prueba2</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -831,20 +831,20 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>20634</v>
+        <v>20603</v>
       </c>
       <c r="E8" t="n">
-        <v>20603</v>
+        <v>20488</v>
       </c>
       <c r="F8" t="n">
-        <v>20636</v>
+        <v>20638</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Perdedora</t>
+          <t>Ganadora</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -854,7 +854,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Euforia</t>
+          <t>Confianza</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -864,7 +864,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>155.0 USD</t>
+          <t>35.0 USD</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -876,7 +876,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Prueba</t>
+          <t>Prueba2</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>20603</v>
+        <v>20652</v>
       </c>
       <c r="E9" t="n">
         <v>20488</v>
       </c>
       <c r="F9" t="n">
-        <v>20638</v>
+        <v>20659</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -908,7 +908,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Optimismo</t>
+          <t>Confianza</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -918,7 +918,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>175.0 USD</t>
+          <t>7.0 USD</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -930,25 +930,25 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Prueba</t>
+          <t>Prueba2</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BOOM1000</t>
+          <t>BOOM500</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>20652</v>
+        <v>7395</v>
       </c>
       <c r="E10" t="n">
-        <v>20488</v>
+        <v>7314</v>
       </c>
       <c r="F10" t="n">
-        <v>20659</v>
+        <v>7412</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>35.0 USD</t>
+          <t>17.0 USD</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -984,25 +984,25 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Prueba</t>
+          <t>Prueba2</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CRASH1000</t>
+          <t>BOOM1000</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>5444</v>
+        <v>20697</v>
       </c>
       <c r="E11" t="n">
-        <v>5454</v>
+        <v>20676</v>
       </c>
       <c r="F11" t="n">
-        <v>5441</v>
+        <v>20712</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>3.0 USD</t>
+          <t>15.0 USD</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1038,29 +1038,29 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Prueba</t>
+          <t>Prueba2</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BOOM300</t>
+          <t>BOOM500</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>1620</v>
+        <v>7417</v>
       </c>
       <c r="E12" t="n">
-        <v>1606</v>
+        <v>7348</v>
       </c>
       <c r="F12" t="n">
-        <v>1636</v>
+        <v>7425</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Perdedora</t>
+          <t>Ganadora</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1080,7 +1080,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>70.0 USD</t>
+          <t>8.0 USD</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
